--- a/CollectionSoftware2/Backup/SA SWAMY STORE.xlsx
+++ b/CollectionSoftware2/Backup/SA SWAMY STORE.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B1" t="n">
